--- a/项目文档/前台接口/用户相关接口.xlsx
+++ b/项目文档/前台接口/用户相关接口.xlsx
@@ -43,7 +43,7 @@
     <t>用户|登陆</t>
   </si>
   <si>
-    <t>/api/web/user/login</t>
+    <t>/web/user/login</t>
   </si>
   <si>
     <r>
@@ -84,7 +84,7 @@
     <t>用户|注册</t>
   </si>
   <si>
-    <t>/api/web/user/register</t>
+    <t>/web/user/register</t>
   </si>
   <si>
     <t>email,password</t>
@@ -145,7 +145,7 @@
     </r>
   </si>
   <si>
-    <t>/api/web/user/findById</t>
+    <t>/web/user/findById</t>
   </si>
   <si>
     <t>/{id}</t>
@@ -160,7 +160,7 @@
     <t>用户|修改</t>
   </si>
   <si>
-    <t>/api/web/user/update</t>
+    <t>/web/user/update</t>
   </si>
   <si>
     <t>userName,nickName,password,email,imgUrl,
@@ -199,7 +199,7 @@
     </r>
   </si>
   <si>
-    <t>/api/web/user/findByEmail</t>
+    <t>/web/user/findByEmail</t>
   </si>
   <si>
     <t>email</t>
@@ -237,7 +237,7 @@
     </r>
   </si>
   <si>
-    <t>/api/web/user/validateEmail</t>
+    <t>/web/user/validateEmail</t>
   </si>
   <si>
     <r>
@@ -277,10 +277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="29">
@@ -357,6 +357,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
@@ -379,9 +386,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,7 +424,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,14 +447,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,59 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -519,187 +519,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,6 +733,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,11 +799,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,26 +815,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,148 +830,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/项目文档/前台接口/用户相关接口.xlsx
+++ b/项目文档/前台接口/用户相关接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="核对清单 - 核对清单" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,119 @@
     <t>/web/user/register</t>
   </si>
   <si>
-    <t>email,password</t>
+    <t>email,time</t>
+  </si>
+  <si>
+    <r>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作为帐号名登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把注册时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间戳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也传过来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>激活帐号</t>
+    </r>
+  </si>
+  <si>
+    <t>/web/user/validateEmail</t>
   </si>
   <si>
     <r>
@@ -106,11 +218,29 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>作为帐号名登录</t>
+      <t>、</t>
     </r>
-  </si>
-  <si>
-    <t>用户注册</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>validateCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、密码</t>
+    </r>
+  </si>
+  <si>
+    <t>激活邮箱</t>
   </si>
   <si>
     <r>
@@ -207,80 +337,16 @@
   <si>
     <t>ajax判断用户名是否可用</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Avenir Next"/>
-        <charset val="134"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证邮箱</t>
-    </r>
-  </si>
-  <si>
-    <t>/web/user/validateEmail</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Avenir Next"/>
-        <charset val="134"/>
-      </rPr>
-      <t>email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Avenir Next"/>
-        <charset val="134"/>
-      </rPr>
-      <t>validateCode</t>
-    </r>
-  </si>
-  <si>
-    <t>验证邮箱</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="29">
@@ -348,6 +414,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -364,7 +460,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,7 +520,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,83 +543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,187 +585,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,23 +797,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,6 +814,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,20 +866,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,152 +896,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1009,6 +1075,9 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1035,12 +1104,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2249,7 +2312,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>
@@ -2333,80 +2396,82 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A5" s="11" t="s">
+    <row r="5" ht="42.8" customHeight="1" spans="1:6">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" ht="41" customHeight="1" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A7" s="17" t="s">
+    <row r="7" ht="41" customHeight="1" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2414,7 +2479,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="5"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2422,7 +2487,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2430,7 +2495,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -2438,7 +2503,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2446,7 +2511,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A14" s="23"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="5"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2454,7 +2519,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A15" s="22"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2462,7 +2527,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="5"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2470,7 +2535,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2478,7 +2543,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="5"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2486,7 +2551,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2494,7 +2559,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2502,7 +2567,7 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2510,7 +2575,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="5"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2518,7 +2583,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A23" s="22"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2526,7 +2591,7 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="5"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2534,7 +2599,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2542,7 +2607,7 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="5"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2550,7 +2615,7 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A27" s="22"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2558,7 +2623,7 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="5"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2566,7 +2631,7 @@
       <c r="F28" s="5"/>
     </row>
     <row r="29" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A29" s="22"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2574,7 +2639,7 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="5"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>

--- a/项目文档/前台接口/用户相关接口.xlsx
+++ b/项目文档/前台接口/用户相关接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>模块</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
       <t>email</t>
     </r>
     <r>
@@ -243,58 +249,79 @@
     <t>激活邮箱</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color indexed="8"/>
+    <t>用户|修改</t>
+  </si>
+  <si>
+    <t>/web/user/update</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Avenir Next"/>
         <charset val="134"/>
       </rPr>
-      <t>用户</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color indexed="8"/>
+      <t>nickName,password,email,imgUrl,
+gender(0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保密，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Avenir Next"/>
         <charset val="134"/>
       </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color indexed="8"/>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>查询</t>
-    </r>
-  </si>
-  <si>
-    <t>/web/user/findById</t>
-  </si>
-  <si>
-    <t>/{id}</t>
+      <t>男，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>),phone,address</t>
+    </r>
   </si>
   <si>
     <t>GET</t>
-  </si>
-  <si>
-    <t>暂不用</t>
-  </si>
-  <si>
-    <t>用户|修改</t>
-  </si>
-  <si>
-    <t>/web/user/update</t>
-  </si>
-  <si>
-    <t>userName,nickName,password,email,imgUrl,
-gender(0保密，1男，2女),phone,address</t>
   </si>
   <si>
     <t>修改个人信息</t>
@@ -343,13 +370,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -366,29 +393,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Avenir Next"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Avenir Next"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Avenir Next"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -421,8 +425,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,26 +477,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Helvetica"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,15 +493,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,6 +504,14 @@
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,15 +531,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,41 +555,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -585,187 +582,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,23 +794,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,17 +803,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,21 +820,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,6 +841,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -891,157 +873,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1078,31 +1075,19 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2309,10 +2294,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>
@@ -2416,235 +2401,217 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A6" s="12" t="s">
+    <row r="6" ht="41" customHeight="1" spans="1:6">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="41" customHeight="1" spans="1:6">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="A8" s="17"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A9" s="21"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A10" s="22"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A11" s="21"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A12" s="22"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A13" s="21"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A14" s="22"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A15" s="21"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A16" s="22"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A17" s="21"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A18" s="22"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A19" s="21"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A21" s="21"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A22" s="22"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A23" s="21"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A24" s="22"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A25" s="21"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A26" s="22"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A27" s="21"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A28" s="22"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A29" s="21"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A30" s="22"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="5"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A29" s="18"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/项目文档/前台接口/用户相关接口.xlsx
+++ b/项目文档/前台接口/用户相关接口.xlsx
@@ -256,13 +256,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Avenir Next"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nickName,password,email,imgUrl,
+      <t>nickName,email,imgUrl,
 gender(0</t>
     </r>
     <r>
@@ -371,9 +365,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="25">
@@ -421,12 +415,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
@@ -434,7 +442,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,27 +484,6 @@
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,13 +504,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
@@ -500,23 +511,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
@@ -524,23 +519,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,7 +534,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,13 +576,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,163 +744,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,8 +787,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -803,8 +799,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,30 +820,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -859,17 +831,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,153 +849,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/项目文档/前台接口/用户相关接口.xlsx
+++ b/项目文档/前台接口/用户相关接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>模块</t>
   </si>
@@ -249,13 +249,45 @@
     <t>激活邮箱</t>
   </si>
   <si>
-    <t>用户|修改</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改信息</t>
+    </r>
   </si>
   <si>
     <t>/web/user/update</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
       <t>nickName,email,imgUrl,
 gender(0</t>
     </r>
@@ -357,6 +389,70 @@
   </si>
   <si>
     <t>ajax判断用户名是否可用</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改密码</t>
+    </r>
+  </si>
+  <si>
+    <t>/web/user/changePassword</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>password</t>
+    </r>
+  </si>
+  <si>
+    <t>修改密码</t>
   </si>
 </sst>
 </file>
@@ -364,11 +460,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -415,58 +511,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -474,37 +518,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,7 +539,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,7 +568,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,6 +581,75 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -576,12 +672,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -594,13 +744,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,151 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,13 +881,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,6 +901,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,41 +950,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,17 +970,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,152 +983,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1084,10 +1180,13 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2291,7 +2390,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>
@@ -2396,7 +2495,7 @@
       </c>
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2424,7 +2523,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16" t="s">
@@ -2432,11 +2531,21 @@
       </c>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:6">
@@ -2448,7 +2557,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2464,7 +2573,7 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="3"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2480,7 +2589,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="3"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2496,7 +2605,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2512,7 +2621,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2528,7 +2637,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2544,7 +2653,7 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2560,7 +2669,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2576,7 +2685,7 @@
       <c r="F25" s="5"/>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2592,7 +2701,7 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="3"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>

--- a/项目文档/前台接口/用户相关接口.xlsx
+++ b/项目文档/前台接口/用户相关接口.xlsx
@@ -209,13 +209,25 @@
   </si>
   <si>
     <r>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Avenir Next"/>
         <charset val="134"/>
       </rPr>
-      <t>email</t>
+      <t>validateCode</t>
     </r>
     <r>
       <rPr>
@@ -224,7 +236,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>、</t>
+      <t>、密码</t>
     </r>
     <r>
       <rPr>
@@ -233,7 +245,7 @@
         <rFont val="Avenir Next"/>
         <charset val="134"/>
       </rPr>
-      <t>validateCode</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -242,7 +254,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>、密码</t>
+      <t>注册时的时间戳</t>
     </r>
   </si>
   <si>
@@ -461,10 +473,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -509,6 +521,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
@@ -517,7 +536,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,23 +564,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,17 +595,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,15 +617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +627,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,11 +656,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -672,187 +684,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,17 +893,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,6 +909,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,6 +943,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -931,32 +969,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,148 +995,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2390,7 +2402,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>

--- a/项目文档/前台接口/用户相关接口.xlsx
+++ b/项目文档/前台接口/用户相关接口.xlsx
@@ -236,7 +236,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>、密码</t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -245,7 +245,7 @@
         <rFont val="Avenir Next"/>
         <charset val="134"/>
       </rPr>
-      <t>,</t>
+      <t>password</t>
     </r>
     <r>
       <rPr>
@@ -254,7 +254,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>注册时的时间戳</t>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>time</t>
     </r>
   </si>
   <si>
@@ -472,11 +481,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -521,13 +530,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
@@ -536,7 +538,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,8 +566,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
@@ -580,14 +627,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,46 +635,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,8 +657,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,37 +693,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,145 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,13 +902,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,21 +922,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,36 +937,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,153 +958,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2402,7 +2411,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>
